--- a/medicine/Enfance/Jany_Saint-Marcoux/Jany_Saint-Marcoux.xlsx
+++ b/medicine/Enfance/Jany_Saint-Marcoux/Jany_Saint-Marcoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saint-Marcoux est le nom de plume de Jeanne Saint-Marcoux dite Jany (née à Paris 14e le 15 novembre 1920, morte à Eaubonne le 26 novembre 2002), journaliste, éditrice et écrivain français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jany Saint-Marcoux est d'abord journaliste. Elle écrit en 1952 son premier roman pour la jeunesse, La Duchesse en pantoufles, dans la collection Rouge et Or aux éditions G. P., dont elle devient immédiatement l'un des auteurs phares. Elle y rencontre Jean Sabran, autre auteur (sous le pseudonyme de Paul Berna) de la même collection, et l'épouse en 1958.
 Elle reçoit le Prix du Salon de l'Enfance en 1954 et le Prix Montyon en 1956 pour son roman Aelis et la Cabre d'or. Elle devient ensuite directrice littéraire chez Hachette en 1972 puis chez Tallandier en 1976.
@@ -543,7 +557,9 @@
           <t>Romans pour la jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1952 : La Duchesse en pantoufles, G. P., Bibliothèque Rouge et Or.
 1953 : Le Secret de Pierres-Noires : Domino, G. P., Bibliothèque Rouge et Or.
@@ -600,7 +616,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Montyon en 1953 pour Le Secret des pierres noires.
 Prix du Salon de l'Enfance en 1954 pour Princesse Cactus.</t>
